--- a/output.xlsx
+++ b/output.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>65,400</t>
+          <t>65,100</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,904,238</t>
+          <t>3,886,328</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>51.89</t>
+          <t>51.93</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8,777,418</t>
+          <t>9,761,518</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,17 +568,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>567,000</t>
+          <t>564,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-4.06%</t>
+          <t>-0.53%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,326,780</t>
+          <t>1,319,760</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>242,767</t>
+          <t>243,000</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>171.56</t>
+          <t>170.65</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -627,15 +627,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>89,800</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
+          <t>88,700</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,100</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>-1.22%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,7 +647,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>653,746</t>
+          <t>645,738</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -655,17 +657,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>49.63</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1,773,295</t>
+          <t>1,774,525</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -686,17 +688,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>775,000</t>
+          <t>797,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+1.04%</t>
+          <t>+2.84%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -706,7 +708,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>551,598</t>
+          <t>567,257</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -716,17 +718,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>52,477</t>
+          <t>144,162</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>67.92</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -747,17 +749,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>726,000</t>
+          <t>731,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.68%</t>
+          <t>+0.69%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -767,7 +769,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>512,500</t>
+          <t>516,030</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -777,17 +779,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>48.37</t>
+          <t>48.36</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>158,557</t>
+          <t>143,421</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>30.80</t>
+          <t>31.01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -811,14 +813,12 @@
           <t>684,000</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-2.29%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>49.28</t>
+          <t>49.24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>222,890</t>
+          <t>174,044</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -869,15 +869,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>55,300</t>
+          <t>54,600</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-1.27%</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>455,056</t>
+          <t>449,296</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>72.07</t>
+          <t>72.10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>415,721</t>
+          <t>831,878</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -926,15 +926,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>201,000</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>500</v>
+          <t>199,200</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,800</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.90%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -944,7 +946,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>425,178</t>
+          <t>421,371</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -954,17 +956,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31.68</t>
+          <t>31.73</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>458,089</t>
+          <t>471,459</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -985,15 +987,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>86,500</t>
+          <t>85,900</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.46%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1003,7 +1005,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>350,639</t>
+          <t>348,207</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1013,17 +1015,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>37.05</t>
+          <t>37.06</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>849,418</t>
+          <t>643,523</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1039,57 +1041,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>380,000</t>
+          <t>196,100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,500</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.52%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
+          <t>+1.82%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>321,371</t>
+          <t>321,700</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>84,571</t>
+          <t>164,049</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>40.57</t>
+          <t>47.60</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>763,075</t>
+          <t>896,682</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>42.32</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -1100,53 +1100,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192,600</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>600</v>
+          <t>379,000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
+          <t>-0.26%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>315,959</t>
+          <t>320,525</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>164,049</t>
+          <t>84,571</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>40.57</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>429,845</t>
+          <t>616,634</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1162,17 +1166,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>345,000</t>
+          <t>338,500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7,500</t>
+          <t>6,500</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-2.13%</t>
+          <t>-1.88%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>267,248</t>
+          <t>262,213</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1190,17 +1194,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>954,287</t>
+          <t>1,093,178</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>225.93</t>
+          <t>221.68</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1221,15 +1225,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>58,300</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>200</v>
+          <t>57,200</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,100</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-1.89%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1237,7 +1243,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>259,818</t>
+          <t>254,916</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1247,17 +1253,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>26.17</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1,035,361</t>
+          <t>2,274,769</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>18.83</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1278,17 +1284,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>159,000</t>
+          <t>163,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>+2.52%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1298,7 +1304,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>232,667</t>
+          <t>238,520</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1308,17 +1314,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20.48</t>
+          <t>20.50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>425,032</t>
+          <t>428,805</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>43.24</t>
+          <t>44.33</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1339,17 +1345,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>221,000</t>
+          <t>218,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-0.90%</t>
+          <t>-1.36%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1359,7 +1365,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>208,370</t>
+          <t>205,542</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1369,17 +1375,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>37.24</t>
+          <t>37.27</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>132,247</t>
+          <t>150,764</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1400,15 +1406,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>109,700</t>
+          <t>109,900</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+0.18%</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1416,7 +1422,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>205,015</t>
+          <t>205,389</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1426,17 +1432,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>17.83</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>147,735</t>
+          <t>172,333</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1457,17 +1463,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>48,300</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,200</t>
-        </is>
+          <t>48,700</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>400</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-2.42%</t>
+          <t>+0.83%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1477,7 +1481,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>194,896</t>
+          <t>196,510</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1487,17 +1491,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>72.78</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>812,810</t>
+          <t>887,237</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1518,15 +1522,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>109,300</t>
+          <t>109,200</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>-0.09%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1536,7 +1540,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>178,867</t>
+          <t>178,703</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1546,17 +1550,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>361,165</t>
+          <t>435,011</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16.52</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1577,15 +1581,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>34,850</t>
+          <t>35,050</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-1.69%</t>
+          <t>+0.57%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1595,7 +1599,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>176,030</t>
+          <t>177,040</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1605,17 +1609,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>62.42</t>
+          <t>62.40</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>670,586</t>
+          <t>698,303</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1636,17 +1640,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>175,800</t>
+          <t>179,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4,100</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-2.28%</t>
+          <t>+1.82%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1656,7 +1660,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>162,554</t>
+          <t>165,513</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1666,17 +1670,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>24.54</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>396,430</t>
+          <t>780,616</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1697,15 +1701,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>88,600</t>
+          <t>89,100</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+0.56%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1715,7 +1719,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>139,369</t>
+          <t>140,155</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1725,17 +1729,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>35.85</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>204,230</t>
+          <t>195,948</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1756,15 +1760,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>67,200</t>
+          <t>66,800</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1772,7 +1776,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>134,400</t>
+          <t>133,600</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1782,17 +1786,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>119,652</t>
+          <t>218,456</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1813,15 +1817,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>41,550</t>
+          <t>41,600</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>+0.12%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1831,7 +1835,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>122,948</t>
+          <t>123,096</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1841,12 +1845,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>70.81</t>
+          <t>70.80</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>677,210</t>
+          <t>434,715</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1867,55 +1871,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>294,500</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
+          <t>19,000</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>170</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+3.51%</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>500</v>
+          <t>+0.90%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>122,644</t>
+          <t>121,973</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>41,645</t>
+          <t>641,964</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17.41</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>571,169</t>
+          <t>1,588,805</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>232.81</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>-46.91</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1926,55 +1930,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18,830</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>230</v>
+          <t>292,500</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-1.21%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
+          <t>-0.68%</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120,882</t>
+          <t>121,811</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>641,964</t>
+          <t>41,645</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1,286,851</t>
+          <t>256,800</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>231.23</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-46.91</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1990,17 +1994,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>163,900</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
+          <t>164,100</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>+0.12%</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2008,7 +2010,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>119,972</t>
+          <t>120,118</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2018,17 +2020,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23.32</t>
+          <t>23.30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>80,749</t>
+          <t>74,492</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2049,7 +2051,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>86,200</t>
+          <t>85,100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2059,7 +2061,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>+1.29%</t>
+          <t>-1.28%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2069,7 +2071,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>118,346</t>
+          <t>116,836</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2079,17 +2081,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>44.58</t>
+          <t>44.62</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>234,630</t>
+          <t>200,350</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2110,17 +2112,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>24,100</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1,550</t>
-        </is>
+          <t>23,550</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>550</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+6.87%</t>
+          <t>-2.28%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>114,901</t>
+          <t>112,279</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8,201,758</t>
+          <t>3,072,612</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>43.58</t>
+          <t>42.59</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>52.22</t>
+          <t>52.27</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>46,920</t>
+          <t>71,440</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2223,55 +2223,53 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>SK텔레콤</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>143,300</t>
+          <t>48,100</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+0.35%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
+          <t>+0.42%</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>107,036</t>
+          <t>105,259</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>74,694</t>
+          <t>218,833</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>260,609</t>
+          <t>347,404</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -2282,53 +2280,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SK텔레콤</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>47,900</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>250</v>
+          <t>137,700</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5,600</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-0.52%</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
+          <t>-3.91%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>104,821</t>
+          <t>102,853</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>218,833</t>
+          <t>74,694</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>44.30</t>
+          <t>29.88</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>176,187</t>
+          <t>673,041</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2339,22 +2341,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>512,000</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9,000</t>
-        </is>
+          <t>15,810</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>240</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-1.73%</t>
+          <t>+1.54%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>101,699</t>
+          <t>101,273</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>19,863</t>
+          <t>640,561</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>21.63</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>28,251</t>
+          <t>6,607,038</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>-12.68</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>-11.70</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2400,20 +2400,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15,570</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>560</v>
+          <t>508,000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-3.47%</t>
+          <t>-0.78%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2423,32 +2425,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>99,735</t>
+          <t>100,905</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>640,561</t>
+          <t>19,863</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>21.66</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7,838,802</t>
+          <t>33,577</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-12.49</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-11.70</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2464,15 +2466,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19,990</t>
+          <t>20,050</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-0.55%</t>
+          <t>+0.30%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2482,7 +2484,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>97,759</t>
+          <t>98,052</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2497,7 +2499,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>772,007</t>
+          <t>882,712</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2518,57 +2520,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>크래프톤</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>109,300</t>
+          <t>198,300</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>5,400</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-1.26%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
+          <t>+2.80%</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>97,029</t>
+          <t>97,638</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>88,773</t>
+          <t>49,237</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>107,152</t>
+          <t>179,486</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-27.56</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -2579,53 +2579,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>45,800</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>650</v>
+          <t>108,100</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1,200</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>+1.44%</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>500</v>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>95,364</t>
+          <t>95,964</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>208,218</t>
+          <t>88,773</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>572,189</t>
+          <t>79,092</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>-27.26</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>30.32</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2636,53 +2640,53 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>크래프톤</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192,900</t>
+          <t>45,700</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>94,979</t>
+          <t>95,156</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>49,237</t>
+          <t>208,218</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>30.46</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>87,921</t>
+          <t>493,028</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>30.32</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -2693,57 +2697,53 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG생활건강</t>
+          <t>삼성에스디에스</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>586,000</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>32,000</t>
-        </is>
+          <t>118,500</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>400</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-5.18%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
+          <t>+0.34%</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>91,523</t>
+          <t>91,693</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15,618</t>
+          <t>77,378</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>34.98</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>137,815</t>
+          <t>101,165</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>43.89</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -2754,55 +2754,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성에스디에스</t>
+          <t>LG생활건강</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>118,100</t>
+          <t>587,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-1.01%</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>500</v>
+          <t>+0.17%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>91,383</t>
+          <t>91,679</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>77,378</t>
+          <t>15,618</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>34.87</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>67,223</t>
+          <t>59,902</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>43.96</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2818,17 +2820,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>392,500</t>
+          <t>387,500</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4,500</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+1.16%</t>
+          <t>-1.27%</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2836,7 +2838,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>86,170</t>
+          <t>85,072</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2846,17 +2848,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>45.40</t>
+          <t>45.43</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>102,928</t>
+          <t>119,231</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2872,20 +2874,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>대한항공</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22,950</t>
+          <t>11,650</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>+0.78%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2895,32 +2897,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>84,507</t>
+          <t>84,819</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>368,221</t>
+          <t>728,061</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>39.55</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>405,914</t>
+          <t>1,018,435</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2931,20 +2933,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>대한항공</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11,560</t>
+          <t>22,850</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2954,32 +2956,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>84,164</t>
+          <t>84,138</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>728,061</t>
+          <t>368,221</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>39.56</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1,956,024</t>
+          <t>658,883</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2995,17 +2997,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>72,600</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
+          <t>72,400</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-2.02%</t>
+          <t>-0.28%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>81,735</t>
+          <t>81,510</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3025,17 +3025,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>79.10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>351,406</t>
+          <t>387,818</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3051,20 +3051,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30,450</t>
+          <t>10,020</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>+1.21%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3074,32 +3074,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>79,509</t>
+          <t>79,902</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>261,112</t>
+          <t>797,426</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>40.56</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>652,178</t>
+          <t>630,799</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -3110,20 +3110,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9,900</t>
+          <t>30,450</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3133,32 +3133,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>78,945</t>
+          <t>79,509</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>797,426</t>
+          <t>261,112</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>40.60</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1,320,610</t>
+          <t>666,779</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -3174,17 +3174,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>45,500</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1,600</t>
-        </is>
+          <t>45,750</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>250</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-3.40%</t>
+          <t>+0.55%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3194,7 +3192,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>78,211</t>
+          <t>78,641</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3204,17 +3202,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2,805,387</t>
+          <t>1,417,512</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24.41</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3235,17 +3233,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>56,900</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1,300</t>
-        </is>
+          <t>57,200</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>300</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+2.34%</t>
+          <t>+0.53%</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3253,7 +3249,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>76,192</t>
+          <t>76,594</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3263,17 +3259,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>43.36</t>
+          <t>43.44</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>537,684</t>
+          <t>284,426</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>139.80</t>
+          <t>140.54</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3294,17 +3290,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>170,400</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1,400</t>
-        </is>
+          <t>170,500</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>100</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>+0.06%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3314,7 +3308,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>72,889</t>
+          <t>72,932</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3324,17 +3318,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>52,247</t>
+          <t>41,871</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>99.71</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3355,17 +3349,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>115,500</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>7,900</t>
-        </is>
+          <t>115,700</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>200</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-6.40%</t>
+          <t>+0.17%</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3373,7 +3365,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>67,559</t>
+          <t>67,676</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3383,17 +3375,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>24.77</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>686,192</t>
+          <t>352,510</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>59.42</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3409,20 +3401,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>SK바이오사이언스</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>166,900</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>400</v>
+          <t>83,100</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11,700</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+0.24%</t>
+          <t>+16.39%</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3430,32 +3424,32 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>62,588</t>
+          <t>63,808</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>37,500</t>
+          <t>76,784</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>47.46</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>62,581</t>
+          <t>3,589,714</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>52.07</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,31 +510,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65900</v>
+        <v>64700</v>
       </c>
       <c r="D2" t="n">
-        <v>800</v>
+        <v>-600</v>
       </c>
       <c r="E2" t="n">
-        <v>1.23</v>
+        <v>-0.92</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>3934087</v>
+        <v>3862449</v>
       </c>
       <c r="H2" t="n">
         <v>5969783</v>
       </c>
       <c r="I2" t="n">
-        <v>51.95</v>
+        <v>51.96</v>
       </c>
       <c r="J2" t="n">
-        <v>9246604</v>
+        <v>6911727</v>
       </c>
       <c r="K2" t="n">
-        <v>8.18</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>17.07</v>
@@ -551,31 +551,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>558000</v>
+        <v>568000</v>
       </c>
       <c r="D3" t="n">
-        <v>-6000</v>
+        <v>5000</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.06</v>
+        <v>0.89</v>
       </c>
       <c r="F3" t="n">
         <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>1305720</v>
+        <v>1329120</v>
       </c>
       <c r="H3" t="n">
         <v>234000</v>
       </c>
       <c r="I3" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="J3" t="n">
-        <v>198217</v>
+        <v>78770</v>
       </c>
       <c r="K3" t="n">
-        <v>168.84</v>
+        <v>171.86</v>
       </c>
       <c r="L3" t="n">
         <v>5.75</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88700</v>
+        <v>87300</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -604,19 +604,19 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>645738</v>
+        <v>635546</v>
       </c>
       <c r="H4" t="n">
         <v>728002</v>
       </c>
       <c r="I4" t="n">
-        <v>49.61</v>
+        <v>49.52</v>
       </c>
       <c r="J4" t="n">
-        <v>2558524</v>
+        <v>1049015</v>
       </c>
       <c r="K4" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="L4" t="n">
         <v>3.56</v>
@@ -633,31 +633,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>788000</v>
+        <v>783000</v>
       </c>
       <c r="D5" t="n">
-        <v>-9000</v>
+        <v>-5000</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.13</v>
+        <v>-0.63</v>
       </c>
       <c r="F5" t="n">
         <v>2500</v>
       </c>
       <c r="G5" t="n">
-        <v>560851</v>
+        <v>557292</v>
       </c>
       <c r="H5" t="n">
         <v>71174</v>
       </c>
       <c r="I5" t="n">
-        <v>10.68</v>
+        <v>10.67</v>
       </c>
       <c r="J5" t="n">
-        <v>61715</v>
+        <v>14168</v>
       </c>
       <c r="K5" t="n">
-        <v>69.06</v>
+        <v>68.62</v>
       </c>
       <c r="L5" t="n">
         <v>11.42</v>
@@ -674,31 +674,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>726000</v>
+        <v>715000</v>
       </c>
       <c r="D6" t="n">
-        <v>-5000</v>
+        <v>-7000</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.68</v>
+        <v>-0.97</v>
       </c>
       <c r="F6" t="n">
         <v>5000</v>
       </c>
       <c r="G6" t="n">
-        <v>512500</v>
+        <v>504735</v>
       </c>
       <c r="H6" t="n">
         <v>70592</v>
       </c>
       <c r="I6" t="n">
-        <v>48.4</v>
+        <v>48.32</v>
       </c>
       <c r="J6" t="n">
-        <v>149413</v>
+        <v>86385</v>
       </c>
       <c r="K6" t="n">
-        <v>30.8</v>
+        <v>30.33</v>
       </c>
       <c r="L6" t="n">
         <v>6.95</v>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>684000</v>
+        <v>678000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="F7" t="n">
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>470349</v>
+        <v>466224</v>
       </c>
       <c r="H7" t="n">
         <v>68765</v>
       </c>
       <c r="I7" t="n">
-        <v>49.3</v>
+        <v>49.25</v>
       </c>
       <c r="J7" t="n">
-        <v>206078</v>
+        <v>70764</v>
       </c>
       <c r="K7" t="n">
-        <v>24.66</v>
+        <v>24.44</v>
       </c>
       <c r="L7" t="n">
         <v>12.52</v>
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55700</v>
+        <v>55500</v>
       </c>
       <c r="D8" t="n">
-        <v>1100</v>
+        <v>-100</v>
       </c>
       <c r="E8" t="n">
-        <v>2.01</v>
+        <v>-0.18</v>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>458348</v>
+        <v>456702</v>
       </c>
       <c r="H8" t="n">
         <v>822887</v>
       </c>
       <c r="I8" t="n">
-        <v>72.13</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>905849</v>
+        <v>297339</v>
       </c>
       <c r="K8" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -797,31 +797,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>202500</v>
+        <v>210000</v>
       </c>
       <c r="D9" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="E9" t="n">
-        <v>1.66</v>
+        <v>2.44</v>
       </c>
       <c r="F9" t="n">
         <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>428351</v>
+        <v>444216</v>
       </c>
       <c r="H9" t="n">
         <v>211532</v>
       </c>
       <c r="I9" t="n">
-        <v>31.74</v>
+        <v>31.85</v>
       </c>
       <c r="J9" t="n">
-        <v>588583</v>
+        <v>892993</v>
       </c>
       <c r="K9" t="n">
-        <v>7.62</v>
+        <v>7.9</v>
       </c>
       <c r="L9" t="n">
         <v>9.359999999999999</v>
@@ -838,31 +838,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>87100</v>
+        <v>89600</v>
       </c>
       <c r="D10" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4</v>
+        <v>2.28</v>
       </c>
       <c r="F10" t="n">
         <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>353071</v>
+        <v>363206</v>
       </c>
       <c r="H10" t="n">
         <v>405363</v>
       </c>
       <c r="I10" t="n">
-        <v>37.07</v>
+        <v>37.11</v>
       </c>
       <c r="J10" t="n">
-        <v>1091826</v>
+        <v>1703899</v>
       </c>
       <c r="K10" t="n">
-        <v>6.53</v>
+        <v>6.71</v>
       </c>
       <c r="L10" t="n">
         <v>14.57</v>
@@ -879,31 +879,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>207000</v>
+        <v>209500</v>
       </c>
       <c r="D11" t="n">
-        <v>10900</v>
+        <v>-1500</v>
       </c>
       <c r="E11" t="n">
-        <v>5.56</v>
+        <v>-0.71</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>339582</v>
+        <v>343683</v>
       </c>
       <c r="H11" t="n">
         <v>164049</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57</v>
+        <v>48.07</v>
       </c>
       <c r="J11" t="n">
-        <v>2024433</v>
+        <v>484957</v>
       </c>
       <c r="K11" t="n">
-        <v>44.67</v>
+        <v>45.21</v>
       </c>
       <c r="L11" t="n">
         <v>3.29</v>
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>367500</v>
+        <v>371500</v>
       </c>
       <c r="D12" t="n">
-        <v>-11500</v>
+        <v>-500</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.03</v>
+        <v>-0.13</v>
       </c>
       <c r="F12" t="n">
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>310799</v>
+        <v>314182</v>
       </c>
       <c r="H12" t="n">
         <v>84571</v>
       </c>
       <c r="I12" t="n">
-        <v>40.62</v>
+        <v>40.46</v>
       </c>
       <c r="J12" t="n">
-        <v>1050365</v>
+        <v>411800</v>
       </c>
       <c r="K12" t="n">
-        <v>10.08</v>
+        <v>10.19</v>
       </c>
       <c r="L12" t="n">
         <v>6.11</v>
@@ -961,31 +961,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57700</v>
+        <v>56600</v>
       </c>
       <c r="D13" t="n">
-        <v>500</v>
+        <v>-900</v>
       </c>
       <c r="E13" t="n">
-        <v>0.87</v>
+        <v>-1.57</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>257144</v>
+        <v>252242</v>
       </c>
       <c r="H13" t="n">
         <v>445657</v>
       </c>
       <c r="I13" t="n">
-        <v>26.15</v>
+        <v>26.12</v>
       </c>
       <c r="J13" t="n">
-        <v>1812919</v>
+        <v>739160</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>18.64</v>
       </c>
       <c r="L13" t="n">
         <v>13.54</v>
@@ -998,38 +998,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>포스코퓨처엠</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>321500</v>
+        <v>170000</v>
       </c>
       <c r="D14" t="n">
-        <v>-17000</v>
+        <v>-1800</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.02</v>
+        <v>-1.05</v>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="n">
-        <v>249044</v>
+        <v>248763</v>
       </c>
       <c r="H14" t="n">
-        <v>77463</v>
+        <v>146331</v>
       </c>
       <c r="I14" t="n">
-        <v>6.82</v>
+        <v>20.56</v>
       </c>
       <c r="J14" t="n">
-        <v>1316373</v>
+        <v>190293</v>
       </c>
       <c r="K14" t="n">
-        <v>210.54</v>
+        <v>46.23</v>
       </c>
       <c r="L14" t="n">
-        <v>4.87</v>
+        <v>13.35</v>
       </c>
       <c r="M14" t="inlineStr"/>
     </row>
@@ -1039,38 +1039,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>포스코퓨처엠</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162400</v>
+        <v>309000</v>
       </c>
       <c r="D15" t="n">
-        <v>-600</v>
+        <v>-8000</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.37</v>
+        <v>-2.52</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G15" t="n">
-        <v>237642</v>
+        <v>239361</v>
       </c>
       <c r="H15" t="n">
-        <v>146331</v>
+        <v>77463</v>
       </c>
       <c r="I15" t="n">
-        <v>20.5</v>
+        <v>6.84</v>
       </c>
       <c r="J15" t="n">
-        <v>325931</v>
+        <v>498732</v>
       </c>
       <c r="K15" t="n">
-        <v>44.17</v>
+        <v>202.36</v>
       </c>
       <c r="L15" t="n">
-        <v>13.35</v>
+        <v>4.87</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>221500</v>
+        <v>227000</v>
       </c>
       <c r="D16" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E16" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="F16" t="n">
         <v>5000</v>
       </c>
       <c r="G16" t="n">
-        <v>208841</v>
+        <v>214027</v>
       </c>
       <c r="H16" t="n">
         <v>94285</v>
       </c>
       <c r="I16" t="n">
-        <v>37.27</v>
+        <v>37.3</v>
       </c>
       <c r="J16" t="n">
-        <v>140312</v>
+        <v>92557</v>
       </c>
       <c r="K16" t="n">
-        <v>8.42</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L16" t="n">
         <v>6.8</v>
@@ -1125,31 +1125,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>110800</v>
+        <v>110600</v>
       </c>
       <c r="D17" t="n">
-        <v>900</v>
+        <v>-400</v>
       </c>
       <c r="E17" t="n">
-        <v>0.82</v>
+        <v>-0.36</v>
       </c>
       <c r="F17" t="n">
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>207071</v>
+        <v>206697</v>
       </c>
       <c r="H17" t="n">
         <v>186887</v>
       </c>
       <c r="I17" t="n">
-        <v>17.87</v>
+        <v>17.91</v>
       </c>
       <c r="J17" t="n">
-        <v>192502</v>
+        <v>59292</v>
       </c>
       <c r="K17" t="n">
-        <v>10.22</v>
+        <v>10.2</v>
       </c>
       <c r="L17" t="n">
         <v>7.16</v>
@@ -1166,31 +1166,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49250</v>
+        <v>49000</v>
       </c>
       <c r="D18" t="n">
-        <v>550</v>
+        <v>-150</v>
       </c>
       <c r="E18" t="n">
-        <v>1.13</v>
+        <v>-0.31</v>
       </c>
       <c r="F18" t="n">
         <v>5000</v>
       </c>
       <c r="G18" t="n">
-        <v>198729</v>
+        <v>197720</v>
       </c>
       <c r="H18" t="n">
         <v>403511</v>
       </c>
       <c r="I18" t="n">
-        <v>72.78</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>1019244</v>
+        <v>270136</v>
       </c>
       <c r="K18" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="L18" t="n">
         <v>9.17</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>112300</v>
+        <v>114600</v>
       </c>
       <c r="D19" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="E19" t="n">
-        <v>2.84</v>
+        <v>2.41</v>
       </c>
       <c r="F19" t="n">
         <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>183776</v>
+        <v>187540</v>
       </c>
       <c r="H19" t="n">
         <v>163648</v>
       </c>
       <c r="I19" t="n">
-        <v>28.71</v>
+        <v>28.79</v>
       </c>
       <c r="J19" t="n">
-        <v>819814</v>
+        <v>659910</v>
       </c>
       <c r="K19" t="n">
-        <v>16.97</v>
+        <v>17.32</v>
       </c>
       <c r="L19" t="n">
         <v>6.61</v>
@@ -1248,31 +1248,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35750</v>
+        <v>35250</v>
       </c>
       <c r="D20" t="n">
-        <v>700</v>
+        <v>-300</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>-0.84</v>
       </c>
       <c r="F20" t="n">
         <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>180576</v>
+        <v>178051</v>
       </c>
       <c r="H20" t="n">
         <v>505108</v>
       </c>
       <c r="I20" t="n">
-        <v>62.37</v>
+        <v>62.36</v>
       </c>
       <c r="J20" t="n">
-        <v>955021</v>
+        <v>562745</v>
       </c>
       <c r="K20" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="L20" t="n">
         <v>9.699999999999999</v>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>185000</v>
+        <v>182100</v>
       </c>
       <c r="D21" t="n">
-        <v>6000</v>
+        <v>-6900</v>
       </c>
       <c r="E21" t="n">
-        <v>3.35</v>
+        <v>-3.65</v>
       </c>
       <c r="F21" t="n">
         <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>171061</v>
+        <v>168380</v>
       </c>
       <c r="H21" t="n">
         <v>92466</v>
       </c>
       <c r="I21" t="n">
-        <v>24.39</v>
+        <v>24.46</v>
       </c>
       <c r="J21" t="n">
-        <v>1486104</v>
+        <v>423484</v>
       </c>
       <c r="K21" t="n">
-        <v>11.05</v>
+        <v>10.88</v>
       </c>
       <c r="L21" t="n">
         <v>8.49</v>
@@ -1330,31 +1330,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>90200</v>
+        <v>91200</v>
       </c>
       <c r="D22" t="n">
         <v>1100</v>
       </c>
       <c r="E22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F22" t="n">
         <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>141885</v>
+        <v>143458</v>
       </c>
       <c r="H22" t="n">
         <v>157301</v>
       </c>
       <c r="I22" t="n">
-        <v>35.9</v>
+        <v>35.91</v>
       </c>
       <c r="J22" t="n">
-        <v>211717</v>
+        <v>113453</v>
       </c>
       <c r="K22" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="L22" t="n">
         <v>8.48</v>
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>67400</v>
+        <v>67100</v>
       </c>
       <c r="D23" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>134800</v>
+        <v>134200</v>
       </c>
       <c r="H23" t="n">
         <v>200000</v>
       </c>
       <c r="I23" t="n">
-        <v>15.79</v>
+        <v>15.82</v>
       </c>
       <c r="J23" t="n">
-        <v>201638</v>
+        <v>36767</v>
       </c>
       <c r="K23" t="n">
-        <v>8.51</v>
+        <v>8.48</v>
       </c>
       <c r="L23" t="n">
         <v>5.73</v>
@@ -1408,38 +1408,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>하나금융지주</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>42300</v>
+        <v>19250</v>
       </c>
       <c r="D24" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1.68</v>
+        <v>0.05</v>
       </c>
       <c r="F24" t="n">
         <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>125167</v>
+        <v>123578</v>
       </c>
       <c r="H24" t="n">
-        <v>295903</v>
+        <v>641964</v>
       </c>
       <c r="I24" t="n">
-        <v>70.79000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="J24" t="n">
-        <v>934323</v>
+        <v>695047</v>
       </c>
       <c r="K24" t="n">
-        <v>3.54</v>
+        <v>-0.51</v>
       </c>
       <c r="L24" t="n">
-        <v>10.06</v>
+        <v>-46.91</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>166900</v>
+        <v>168200</v>
       </c>
       <c r="D25" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="E25" t="n">
-        <v>1.71</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>122168</v>
+        <v>123120</v>
       </c>
       <c r="H25" t="n">
         <v>73198</v>
       </c>
       <c r="I25" t="n">
-        <v>23.29</v>
+        <v>23.27</v>
       </c>
       <c r="J25" t="n">
-        <v>126778</v>
+        <v>55615</v>
       </c>
       <c r="K25" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="L25" t="n">
         <v>5.13</v>
@@ -1490,38 +1490,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>하나금융지주</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19010</v>
+        <v>41450</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>-750</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05</v>
+        <v>-1.78</v>
       </c>
       <c r="F26" t="n">
         <v>5000</v>
       </c>
       <c r="G26" t="n">
-        <v>122037</v>
+        <v>122652</v>
       </c>
       <c r="H26" t="n">
-        <v>641964</v>
+        <v>295903</v>
       </c>
       <c r="I26" t="n">
-        <v>14.44</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>1014271</v>
+        <v>419804</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.5</v>
+        <v>3.47</v>
       </c>
       <c r="L26" t="n">
-        <v>-46.91</v>
+        <v>10.06</v>
       </c>
       <c r="M26" t="inlineStr"/>
     </row>
@@ -1531,38 +1531,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>카카오뱅크</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>85600</v>
+        <v>24850</v>
       </c>
       <c r="D27" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F27" t="n">
         <v>5000</v>
       </c>
       <c r="G27" t="n">
-        <v>117522</v>
+        <v>118477</v>
       </c>
       <c r="H27" t="n">
-        <v>137292</v>
+        <v>476767</v>
       </c>
       <c r="I27" t="n">
-        <v>44.6</v>
+        <v>13.79</v>
       </c>
       <c r="J27" t="n">
-        <v>311435</v>
+        <v>698469</v>
       </c>
       <c r="K27" t="n">
-        <v>11.57</v>
+        <v>44.94</v>
       </c>
       <c r="L27" t="n">
-        <v>11</v>
+        <v>4.68</v>
       </c>
       <c r="M27" t="inlineStr"/>
     </row>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>카카오뱅크</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24400</v>
+        <v>85500</v>
       </c>
       <c r="D28" t="n">
-        <v>850</v>
+        <v>-100</v>
       </c>
       <c r="E28" t="n">
-        <v>3.61</v>
+        <v>-0.12</v>
       </c>
       <c r="F28" t="n">
         <v>5000</v>
       </c>
       <c r="G28" t="n">
-        <v>116331</v>
+        <v>117385</v>
       </c>
       <c r="H28" t="n">
-        <v>476767</v>
+        <v>137292</v>
       </c>
       <c r="I28" t="n">
-        <v>13.72</v>
+        <v>44.57</v>
       </c>
       <c r="J28" t="n">
-        <v>2563808</v>
+        <v>83305</v>
       </c>
       <c r="K28" t="n">
-        <v>44.12</v>
+        <v>11.56</v>
       </c>
       <c r="L28" t="n">
-        <v>4.68</v>
+        <v>11</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1620,10 +1620,10 @@
         <v>279000</v>
       </c>
       <c r="D29" t="n">
-        <v>-13500</v>
+        <v>1500</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.62</v>
+        <v>0.54</v>
       </c>
       <c r="F29" t="n">
         <v>500</v>
@@ -1635,10 +1635,10 @@
         <v>41645</v>
       </c>
       <c r="I29" t="n">
-        <v>18.17</v>
+        <v>18.34</v>
       </c>
       <c r="J29" t="n">
-        <v>307237</v>
+        <v>97128</v>
       </c>
       <c r="K29" t="n">
         <v>220.55</v>
@@ -1658,31 +1658,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>232000</v>
+        <v>231500</v>
       </c>
       <c r="D30" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>2.2</v>
+        <v>0.43</v>
       </c>
       <c r="F30" t="n">
         <v>500</v>
       </c>
       <c r="G30" t="n">
-        <v>109910</v>
+        <v>109673</v>
       </c>
       <c r="H30" t="n">
         <v>47375</v>
       </c>
       <c r="I30" t="n">
-        <v>52.28</v>
+        <v>52.33</v>
       </c>
       <c r="J30" t="n">
-        <v>96774</v>
+        <v>18358</v>
       </c>
       <c r="K30" t="n">
-        <v>9.16</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L30" t="n">
         <v>9.699999999999999</v>
@@ -1699,31 +1699,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>48550</v>
+        <v>49350</v>
       </c>
       <c r="D31" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="F31" t="n">
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>106243</v>
+        <v>107994</v>
       </c>
       <c r="H31" t="n">
         <v>218833</v>
       </c>
       <c r="I31" t="n">
-        <v>44.35</v>
+        <v>44.18</v>
       </c>
       <c r="J31" t="n">
-        <v>391308</v>
+        <v>396268</v>
       </c>
       <c r="K31" t="n">
-        <v>11.65</v>
+        <v>11.84</v>
       </c>
       <c r="L31" t="n">
         <v>7.97</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>140000</v>
+        <v>136700</v>
       </c>
       <c r="D32" t="n">
-        <v>2300</v>
+        <v>-2100</v>
       </c>
       <c r="E32" t="n">
-        <v>1.67</v>
+        <v>-1.51</v>
       </c>
       <c r="F32" t="n">
         <v>5000</v>
       </c>
       <c r="G32" t="n">
-        <v>104571</v>
+        <v>102106</v>
       </c>
       <c r="H32" t="n">
         <v>74694</v>
       </c>
       <c r="I32" t="n">
-        <v>29.82</v>
+        <v>29.89</v>
       </c>
       <c r="J32" t="n">
-        <v>383750</v>
+        <v>299364</v>
       </c>
       <c r="K32" t="n">
-        <v>11.08</v>
+        <v>10.82</v>
       </c>
       <c r="L32" t="n">
         <v>13.76</v>
@@ -1777,38 +1777,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15810</v>
+        <v>112900</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="F33" t="n">
         <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>101273</v>
+        <v>100225</v>
       </c>
       <c r="H33" t="n">
-        <v>640561</v>
+        <v>88773</v>
       </c>
       <c r="I33" t="n">
-        <v>12.39</v>
+        <v>6.72</v>
       </c>
       <c r="J33" t="n">
-        <v>3514940</v>
+        <v>69626</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.68</v>
+        <v>-28.47</v>
       </c>
       <c r="L33" t="n">
-        <v>-11.7</v>
+        <v>-6.47</v>
       </c>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1818,38 +1818,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>509000</v>
+        <v>15550</v>
       </c>
       <c r="D34" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="F34" t="n">
         <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>101103</v>
+        <v>99607</v>
       </c>
       <c r="H34" t="n">
-        <v>19863</v>
+        <v>640561</v>
       </c>
       <c r="I34" t="n">
-        <v>21.63</v>
+        <v>12.15</v>
       </c>
       <c r="J34" t="n">
-        <v>30123</v>
+        <v>2046778</v>
       </c>
       <c r="K34" t="n">
-        <v>12.55</v>
+        <v>-12.47</v>
       </c>
       <c r="L34" t="n">
-        <v>9.380000000000001</v>
+        <v>-11.7</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1863,31 +1863,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>203000</v>
+        <v>202000</v>
       </c>
       <c r="D35" t="n">
-        <v>4700</v>
+        <v>1000</v>
       </c>
       <c r="E35" t="n">
-        <v>2.37</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>99952</v>
+        <v>99459</v>
       </c>
       <c r="H35" t="n">
         <v>49237</v>
       </c>
       <c r="I35" t="n">
-        <v>30.47</v>
+        <v>30.25</v>
       </c>
       <c r="J35" t="n">
-        <v>248176</v>
+        <v>333802</v>
       </c>
       <c r="K35" t="n">
-        <v>19.91</v>
+        <v>19.82</v>
       </c>
       <c r="L35" t="n">
         <v>10.29</v>
@@ -1900,38 +1900,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20050</v>
+        <v>500000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
       <c r="F36" t="n">
         <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>98052</v>
+        <v>99316</v>
       </c>
       <c r="H36" t="n">
-        <v>489039</v>
+        <v>19863</v>
       </c>
       <c r="I36" t="n">
-        <v>11.17</v>
+        <v>21.61</v>
       </c>
       <c r="J36" t="n">
-        <v>980788</v>
+        <v>26288</v>
       </c>
       <c r="K36" t="n">
-        <v>0.97</v>
+        <v>12.32</v>
       </c>
       <c r="L36" t="n">
-        <v>64.98</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1941,38 +1941,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>108900</v>
+        <v>19970</v>
       </c>
       <c r="D37" t="n">
-        <v>800</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="n">
-        <v>0.74</v>
+        <v>-0.05</v>
       </c>
       <c r="F37" t="n">
         <v>5000</v>
       </c>
       <c r="G37" t="n">
-        <v>96674</v>
+        <v>97661</v>
       </c>
       <c r="H37" t="n">
-        <v>88773</v>
+        <v>489039</v>
       </c>
       <c r="I37" t="n">
-        <v>6.56</v>
+        <v>11.19</v>
       </c>
       <c r="J37" t="n">
-        <v>132537</v>
+        <v>416628</v>
       </c>
       <c r="K37" t="n">
-        <v>-27.46</v>
+        <v>0.97</v>
       </c>
       <c r="L37" t="n">
-        <v>-6.47</v>
+        <v>64.98</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>45450</v>
+        <v>43900</v>
       </c>
       <c r="D38" t="n">
-        <v>-250</v>
+        <v>-800</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.55</v>
+        <v>-1.79</v>
       </c>
       <c r="F38" t="n">
         <v>500</v>
       </c>
       <c r="G38" t="n">
-        <v>94635</v>
+        <v>91408</v>
       </c>
       <c r="H38" t="n">
         <v>208218</v>
       </c>
       <c r="I38" t="n">
-        <v>16.84</v>
+        <v>16.75</v>
       </c>
       <c r="J38" t="n">
-        <v>628980</v>
+        <v>344652</v>
       </c>
       <c r="K38" t="n">
-        <v>5.57</v>
+        <v>5.38</v>
       </c>
       <c r="L38" t="n">
         <v>30.32</v>
@@ -2027,31 +2027,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="D39" t="n">
-        <v>400</v>
+        <v>-1200</v>
       </c>
       <c r="E39" t="n">
-        <v>0.34</v>
+        <v>-1.01</v>
       </c>
       <c r="F39" t="n">
         <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>92002</v>
+        <v>90842</v>
       </c>
       <c r="H39" t="n">
         <v>77378</v>
       </c>
       <c r="I39" t="n">
-        <v>15.6</v>
+        <v>15.63</v>
       </c>
       <c r="J39" t="n">
-        <v>99668</v>
+        <v>44729</v>
       </c>
       <c r="K39" t="n">
-        <v>8.369999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="L39" t="n">
         <v>14.23</v>
@@ -2068,31 +2068,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>587000</v>
+        <v>573000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.87</v>
       </c>
       <c r="F40" t="n">
         <v>5000</v>
       </c>
       <c r="G40" t="n">
-        <v>91679</v>
+        <v>89492</v>
       </c>
       <c r="H40" t="n">
         <v>15618</v>
       </c>
       <c r="I40" t="n">
-        <v>34.88</v>
+        <v>34.77</v>
       </c>
       <c r="J40" t="n">
-        <v>43571</v>
+        <v>31162</v>
       </c>
       <c r="K40" t="n">
-        <v>43.96</v>
+        <v>42.91</v>
       </c>
       <c r="L40" t="n">
         <v>4.41</v>
@@ -2109,31 +2109,31 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>395500</v>
+        <v>391500</v>
       </c>
       <c r="D41" t="n">
-        <v>8000</v>
+        <v>-2500</v>
       </c>
       <c r="E41" t="n">
-        <v>2.06</v>
+        <v>-0.63</v>
       </c>
       <c r="F41" t="n">
         <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>86828</v>
+        <v>85950</v>
       </c>
       <c r="H41" t="n">
         <v>21954</v>
       </c>
       <c r="I41" t="n">
-        <v>45.33</v>
+        <v>45.12</v>
       </c>
       <c r="J41" t="n">
-        <v>124176</v>
+        <v>179327</v>
       </c>
       <c r="K41" t="n">
-        <v>19.93</v>
+        <v>19.73</v>
       </c>
       <c r="L41" t="n">
         <v>13.73</v>
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11770</v>
+        <v>11750</v>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>-70</v>
       </c>
       <c r="E42" t="n">
-        <v>1.03</v>
+        <v>-0.59</v>
       </c>
       <c r="F42" t="n">
         <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>85693</v>
+        <v>85547</v>
       </c>
       <c r="H42" t="n">
         <v>728061</v>
       </c>
       <c r="I42" t="n">
-        <v>39.57</v>
+        <v>39.61</v>
       </c>
       <c r="J42" t="n">
-        <v>1830841</v>
+        <v>786651</v>
       </c>
       <c r="K42" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="L42" t="n">
         <v>11.51</v>
@@ -2191,31 +2191,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22850</v>
+        <v>22750</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F43" t="n">
         <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>84138</v>
+        <v>83770</v>
       </c>
       <c r="H43" t="n">
         <v>368221</v>
       </c>
       <c r="I43" t="n">
-        <v>15.14</v>
+        <v>15.09</v>
       </c>
       <c r="J43" t="n">
-        <v>632029</v>
+        <v>259496</v>
       </c>
       <c r="K43" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="L43" t="n">
         <v>21.95</v>
@@ -2228,38 +2228,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S-Oil</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>73300</v>
+        <v>31600</v>
       </c>
       <c r="D44" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="E44" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="n">
-        <v>82523</v>
+        <v>82511</v>
       </c>
       <c r="H44" t="n">
-        <v>112583</v>
+        <v>261112</v>
       </c>
       <c r="I44" t="n">
-        <v>79.09999999999999</v>
+        <v>40.63</v>
       </c>
       <c r="J44" t="n">
-        <v>208755</v>
+        <v>707859</v>
       </c>
       <c r="K44" t="n">
-        <v>4.06</v>
+        <v>6.54</v>
       </c>
       <c r="L44" t="n">
-        <v>27.2</v>
+        <v>7.99</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2269,38 +2269,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>S-Oil</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10100</v>
+        <v>72200</v>
       </c>
       <c r="D45" t="n">
-        <v>80</v>
+        <v>-700</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8</v>
+        <v>-0.96</v>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="n">
-        <v>80540</v>
+        <v>81285</v>
       </c>
       <c r="H45" t="n">
-        <v>797426</v>
+        <v>112583</v>
       </c>
       <c r="I45" t="n">
-        <v>13.85</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>732009</v>
+        <v>192515</v>
       </c>
       <c r="K45" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>9.85</v>
+        <v>27.2</v>
       </c>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -2310,38 +2310,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30750</v>
+        <v>10080</v>
       </c>
       <c r="D46" t="n">
-        <v>300</v>
+        <v>-40</v>
       </c>
       <c r="E46" t="n">
-        <v>0.99</v>
+        <v>-0.4</v>
       </c>
       <c r="F46" t="n">
         <v>5000</v>
       </c>
       <c r="G46" t="n">
-        <v>80292</v>
+        <v>80381</v>
       </c>
       <c r="H46" t="n">
-        <v>261112</v>
+        <v>797426</v>
       </c>
       <c r="I46" t="n">
-        <v>40.58</v>
+        <v>13.87</v>
       </c>
       <c r="J46" t="n">
-        <v>711790</v>
+        <v>162347</v>
       </c>
       <c r="K46" t="n">
-        <v>6.36</v>
+        <v>2.9</v>
       </c>
       <c r="L46" t="n">
-        <v>7.99</v>
+        <v>9.85</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2355,31 +2355,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45750</v>
+        <v>45200</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="F47" t="n">
         <v>5000</v>
       </c>
       <c r="G47" t="n">
-        <v>78641</v>
+        <v>77695</v>
       </c>
       <c r="H47" t="n">
         <v>171893</v>
       </c>
       <c r="I47" t="n">
-        <v>24.6</v>
+        <v>24.62</v>
       </c>
       <c r="J47" t="n">
-        <v>1212918</v>
+        <v>692075</v>
       </c>
       <c r="K47" t="n">
-        <v>24.54</v>
+        <v>24.25</v>
       </c>
       <c r="L47" t="n">
         <v>4.21</v>
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>58700</v>
+        <v>56800</v>
       </c>
       <c r="D48" t="n">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="E48" t="n">
-        <v>2.62</v>
+        <v>-2.57</v>
       </c>
       <c r="F48" t="n">
         <v>500</v>
       </c>
       <c r="G48" t="n">
-        <v>78602</v>
+        <v>76058</v>
       </c>
       <c r="H48" t="n">
         <v>133905</v>
       </c>
       <c r="I48" t="n">
-        <v>39.73</v>
+        <v>39.81</v>
       </c>
       <c r="J48" t="n">
-        <v>479141</v>
+        <v>89389</v>
       </c>
       <c r="K48" t="n">
-        <v>144.23</v>
+        <v>139.56</v>
       </c>
       <c r="L48" t="n">
         <v>3.08</v>
@@ -2437,31 +2437,31 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>169700</v>
+        <v>169800</v>
       </c>
       <c r="D49" t="n">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.47</v>
+        <v>-0.06</v>
       </c>
       <c r="F49" t="n">
         <v>5000</v>
       </c>
       <c r="G49" t="n">
-        <v>72590</v>
+        <v>72633</v>
       </c>
       <c r="H49" t="n">
         <v>42775</v>
       </c>
       <c r="I49" t="n">
-        <v>24.02</v>
+        <v>23.95</v>
       </c>
       <c r="J49" t="n">
-        <v>72150</v>
+        <v>42896</v>
       </c>
       <c r="K49" t="n">
-        <v>99.3</v>
+        <v>99.36</v>
       </c>
       <c r="L49" t="n">
         <v>0.43</v>
@@ -2478,31 +2478,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>116200</v>
+        <v>116500</v>
       </c>
       <c r="D50" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E50" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F50" t="n">
         <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>67969</v>
+        <v>68144</v>
       </c>
       <c r="H50" t="n">
         <v>58493</v>
       </c>
       <c r="I50" t="n">
-        <v>24.6</v>
+        <v>24.69</v>
       </c>
       <c r="J50" t="n">
-        <v>226310</v>
+        <v>192558</v>
       </c>
       <c r="K50" t="n">
-        <v>59.68</v>
+        <v>59.84</v>
       </c>
       <c r="L50" t="n">
         <v>2.81</v>
@@ -2519,31 +2519,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>273500</v>
+        <v>272000</v>
       </c>
       <c r="D51" t="n">
-        <v>14000</v>
+        <v>1500</v>
       </c>
       <c r="E51" t="n">
-        <v>5.39</v>
+        <v>0.55</v>
       </c>
       <c r="F51" t="n">
         <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>64730</v>
+        <v>64375</v>
       </c>
       <c r="H51" t="n">
         <v>23667</v>
       </c>
       <c r="I51" t="n">
-        <v>20.48</v>
+        <v>21.08</v>
       </c>
       <c r="J51" t="n">
-        <v>551911</v>
+        <v>79165</v>
       </c>
       <c r="K51" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
       <c r="L51" t="n">
         <v>25.85</v>
